--- a/Carteira_criptos_dia.xlsx
+++ b/Carteira_criptos_dia.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,30 +465,22 @@
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>TOTAL_BRL</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44862</v>
+        <v>44875</v>
       </c>
       <c r="B2" t="n">
-        <v>560.9054169668555</v>
+        <v>487.2746091049805</v>
       </c>
       <c r="C2" t="n">
-        <v>86.072307499823</v>
+        <v>73.12737686496826</v>
       </c>
       <c r="D2" t="n">
-        <v>214.6037886127675</v>
+        <v>225.828903178814</v>
       </c>
       <c r="E2" t="n">
-        <v>861.5815130794459</v>
-      </c>
-      <c r="F2" t="n">
-        <v>4591.626357654291</v>
+        <v>786.2308891487628</v>
       </c>
     </row>
   </sheetData>

--- a/Carteira_criptos_dia.xlsx
+++ b/Carteira_criptos_dia.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -431,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>Ativos</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -462,25 +456,65 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>44875</v>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Qtde</t>
+        </is>
       </c>
       <c r="B2" t="n">
-        <v>487.2746091049805</v>
+        <v>0.02710191</v>
       </c>
       <c r="C2" t="n">
-        <v>73.12737686496826</v>
+        <v>0.05509749</v>
       </c>
       <c r="D2" t="n">
-        <v>225.828903178814</v>
+        <v>2486.10485204</v>
       </c>
       <c r="E2" t="n">
-        <v>786.2308891487628</v>
+        <v>2486.18705144</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>ValorDol</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>456.1344086481445</v>
+      </c>
+      <c r="C3" t="n">
+        <v>67.11877766559081</v>
+      </c>
+      <c r="D3" t="n">
+        <v>191.3480345368645</v>
+      </c>
+      <c r="E3" t="n">
+        <v>714.6012208505998</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>ValorReal</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2406.473913145881</v>
+      </c>
+      <c r="C4" t="n">
+        <v>354.105247208124</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1009.51396060959</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3770.093120963595</v>
       </c>
     </row>
   </sheetData>

--- a/Carteira_criptos_dia.xlsx
+++ b/Carteira_criptos_dia.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2406.473913145881</v>
+        <v>2482.192224981473</v>
       </c>
       <c r="C4" t="n">
-        <v>354.105247208124</v>
+        <v>365.2469643006121</v>
       </c>
       <c r="D4" t="n">
-        <v>1009.51396060959</v>
+        <v>1041.277734342709</v>
       </c>
       <c r="E4" t="n">
-        <v>3770.093120963595</v>
+        <v>3888.716923624794</v>
       </c>
     </row>
   </sheetData>
